--- a/inst/extdata/SF-April13.xlsx
+++ b/inst/extdata/SF-April13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbalzer/Dropbox/LEMMA_shared/JS code branch/lemma-temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/LEMMA_shared/JS code branch/LEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69B94F3-2F89-1449-8D12-48D352944F45}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3647656-6C7B-8A46-874E-4955BB13161A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2140" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="5280" yWindow="2140" windowWidth="23580" windowHeight="17440" activeTab="3" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1298,6 +1298,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C21:G22" xr:uid="{4DE0DCAE-C019-834F-B9C1-56C11EC5B821}">
       <formula1>$A$27:$A$28</formula1>
@@ -1328,7 +1329,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1371,6 +1372,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="2">
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{88106E44-DD25-724E-9428-A2C12A1073F6}">
       <formula1>0</formula1>
@@ -1390,7 +1392,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,6 +1734,7 @@
       <c r="A48" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A390" xr:uid="{140C1EC3-30A5-2448-BEAA-24AD135906D1}">
       <formula1>43831</formula1>
@@ -1750,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1911,6 +1914,7 @@
       <c r="C17"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="8">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7D54BBB7-AF7C-3841-89CF-D6BEAE84ECD4}">
       <formula1>1</formula1>

--- a/inst/extdata/SF-April13.xlsx
+++ b/inst/extdata/SF-April13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/LEMMA_shared/JS code branch/LEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3647656-6C7B-8A46-874E-4955BB13161A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8694CA3B-9E83-1543-BFA9-5D4853F5E4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2140" windowWidth="23580" windowHeight="17440" activeTab="3" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="5280" yWindow="2140" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1753,7 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/SF-April13.xlsx
+++ b/inst/extdata/SF-April13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/LEMMA_shared/JS code branch/LEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8694CA3B-9E83-1543-BFA9-5D4853F5E4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE48DA3-7692-D342-86AD-665064ED4F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2140" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="5280" yWindow="2140" windowWidth="23580" windowHeight="17440" activeTab="3" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1842,9 +1842,7 @@
       <c r="A9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11">
-        <v>43906</v>
-      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
         <v>67</v>
       </c>

--- a/inst/extdata/SF-April13.xlsx
+++ b/inst/extdata/SF-April13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/LEMMA_shared/JS code branch/LEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE48DA3-7692-D342-86AD-665064ED4F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4156AE-5F2F-5848-A24F-BE25972A6444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2140" windowWidth="23580" windowHeight="17440" activeTab="3" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="5280" yWindow="2140" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>Number of Days from Infection to Becoming Infectious (Latent Period)</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>Priors</t>
+  </si>
+  <si>
+    <t>start.display.date</t>
+  </si>
+  <si>
+    <t>Projection Start Date</t>
   </si>
 </sst>
 </file>
@@ -744,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1326,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,12 +1368,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C4" s="10">
         <v>43952</v>
       </c>
     </row>
@@ -1378,7 +1395,7 @@
       <formula1>0</formula1>
       <formula2>100000000</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{E9B6D3E5-D408-1D41-9CF1-E5EA3191C411}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4" xr:uid="{E9B6D3E5-D408-1D41-9CF1-E5EA3191C411}">
       <formula1>43831</formula1>
       <formula2>44561</formula2>
     </dataValidation>
@@ -1753,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/SF-April13.xlsx
+++ b/inst/extdata/SF-April13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/LEMMA_shared/JS code branch/LEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4156AE-5F2F-5848-A24F-BE25972A6444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D92ADF-40A4-C646-85AF-25280AA66EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2140" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="9660" yWindow="2040" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -292,9 +292,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmmm\ d"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -414,12 +411,6 @@
     <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -433,6 +424,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1406,35 +1403,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816A416-5B6A-4545-98DF-6AED7BBC6987}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="12"/>
     <col min="2" max="2" width="14.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="18">
         <v>43913</v>
       </c>
       <c r="B2" s="4">
@@ -1448,7 +1445,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="18">
         <v>43914</v>
       </c>
       <c r="B3" s="4">
@@ -1459,7 +1456,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="18">
         <v>43915</v>
       </c>
       <c r="B4" s="4">
@@ -1470,7 +1467,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="18">
         <v>43916</v>
       </c>
       <c r="B5" s="4">
@@ -1481,7 +1478,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="18">
         <v>43917</v>
       </c>
       <c r="B6" s="4">
@@ -1492,7 +1489,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="18">
         <v>43918</v>
       </c>
       <c r="B7" s="4">
@@ -1503,7 +1500,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="18">
         <v>43919</v>
       </c>
       <c r="B8" s="4">
@@ -1514,7 +1511,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="18">
         <v>43920</v>
       </c>
       <c r="B9" s="4">
@@ -1525,7 +1522,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="18">
         <v>43921</v>
       </c>
       <c r="B10" s="4">
@@ -1536,7 +1533,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="18">
         <v>43922</v>
       </c>
       <c r="B11" s="4">
@@ -1547,7 +1544,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="18">
         <v>43923</v>
       </c>
       <c r="B12" s="4">
@@ -1558,7 +1555,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>43924</v>
       </c>
       <c r="B13" s="4">
@@ -1569,7 +1566,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>43925</v>
       </c>
       <c r="B14" s="4">
@@ -1580,7 +1577,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>43926</v>
       </c>
       <c r="B15" s="4">
@@ -1591,7 +1588,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>43927</v>
       </c>
       <c r="B16" s="4">
@@ -1602,7 +1599,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>43928</v>
       </c>
       <c r="B17" s="4">
@@ -1613,7 +1610,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>43929</v>
       </c>
       <c r="B18" s="4">
@@ -1624,7 +1621,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>43930</v>
       </c>
       <c r="B19" s="4">
@@ -1635,7 +1632,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>43931</v>
       </c>
       <c r="B20" s="4">
@@ -1646,7 +1643,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>43932</v>
       </c>
       <c r="B21" s="4">
@@ -1657,7 +1654,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>43933</v>
       </c>
       <c r="B22" s="4">
@@ -1668,7 +1665,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>43934</v>
       </c>
       <c r="B23" s="4">
@@ -1677,83 +1674,11 @@
       <c r="C23" s="4">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="2">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A390" xr:uid="{140C1EC3-30A5-2448-BEAA-24AD135906D1}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A508" xr:uid="{140C1EC3-30A5-2448-BEAA-24AD135906D1}">
       <formula1>43831</formula1>
       <formula2>44561</formula2>
     </dataValidation>
@@ -1793,7 +1718,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="4">
@@ -1801,7 +1726,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="4">
@@ -1812,7 +1737,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="4">
@@ -1823,7 +1748,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="5">
@@ -1831,7 +1756,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="4">
@@ -1839,7 +1764,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="4"/>
@@ -1848,7 +1773,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="4" t="b">
@@ -1856,7 +1781,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="11"/>
@@ -1865,7 +1790,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="11"/>
@@ -1874,7 +1799,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="4">
@@ -1882,15 +1807,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>43853</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="4">
@@ -1898,7 +1823,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="4">
@@ -1906,10 +1831,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1917,7 +1842,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="4" t="b">

--- a/inst/extdata/SF-April13.xlsx
+++ b/inst/extdata/SF-April13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/LEMMA_shared/JS code branch/LEMMA/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D92ADF-40A4-C646-85AF-25280AA66EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81631CBE-D989-D740-AA11-5C677B03DFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2040" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="9660" yWindow="2040" windowWidth="23580" windowHeight="17440" activeTab="3" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>Number of Days from Infection to Becoming Infectious (Latent Period)</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
   </si>
   <si>
-    <t>Best Guess</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -286,6 +283,33 @@
   </si>
   <si>
     <t>Projection Start Date</t>
+  </si>
+  <si>
+    <t>User's Highest Prior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This column will be used for the "User's Prior Projection". </t>
+  </si>
+  <si>
+    <t>plot.observed.data.long.term</t>
+  </si>
+  <si>
+    <t>plot.observed.data.short.term</t>
+  </si>
+  <si>
+    <t>lower.bound.label</t>
+  </si>
+  <si>
+    <t>upper.bound.label</t>
+  </si>
+  <si>
+    <t>Confirmed COVID19</t>
+  </si>
+  <si>
+    <t>Probable COVID19</t>
+  </si>
+  <si>
+    <t>For San Francisco, "Confirmed COVID19 + 30%PUI"</t>
   </si>
 </sst>
 </file>
@@ -386,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,6 +453,12 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,64 +777,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="7" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="62.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
+      <c r="E2" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="5">
         <v>0.05</v>
@@ -822,15 +853,15 @@
         <v>0.05</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
         <v>2.5</v>
@@ -850,7 +881,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -873,7 +904,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -896,7 +927,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -919,7 +950,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -942,7 +973,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -965,7 +996,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -988,7 +1019,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -1011,10 +1042,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6">
         <v>43896</v>
@@ -1034,10 +1065,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4">
         <v>0.4</v>
@@ -1055,15 +1086,15 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
@@ -1083,10 +1114,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6">
         <v>43906</v>
@@ -1104,15 +1135,15 @@
         <v>43906</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4">
         <v>0.3</v>
@@ -1130,15 +1161,15 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
@@ -1158,10 +1189,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6">
         <v>43983</v>
@@ -1181,10 +1212,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4">
         <v>1.1000000000000001</v>
@@ -1202,15 +1233,15 @@
         <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
@@ -1230,10 +1261,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="b">
         <v>0</v>
@@ -1251,15 +1282,15 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4" t="b">
         <v>0</v>
@@ -1277,12 +1308,17 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1297,11 +1333,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C21:G22" xr:uid="{4DE0DCAE-C019-834F-B9C1-56C11EC5B821}">
       <formula1>$A$27:$A$28</formula1>
@@ -1343,21 +1378,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9">
         <v>883305</v>
@@ -1365,10 +1400,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
         <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
       </c>
       <c r="C3" s="6">
         <v>43905</v>
@@ -1376,10 +1411,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
       </c>
       <c r="C4" s="10">
         <v>43952</v>
@@ -1418,16 +1453,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1441,7 +1476,7 @@
         <v>62.599999999999994</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1693,33 +1728,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4">
         <v>20</v>
@@ -1727,29 +1762,29 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5">
         <v>0.01</v>
@@ -1757,7 +1792,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4">
         <v>12345</v>
@@ -1765,16 +1800,16 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4" t="b">
         <v>0</v>
@@ -1782,25 +1817,25 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="4">
         <v>10000</v>
@@ -1808,7 +1843,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="12">
         <v>43853</v>
@@ -1816,7 +1851,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4">
         <v>0.9</v>
@@ -1824,7 +1859,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4">
         <v>1.1000000000000001</v>
@@ -1832,30 +1867,61 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="C17"/>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7D54BBB7-AF7C-3841-89CF-D6BEAE84ECD4}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
@@ -1888,6 +1954,7 @@
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B19:B20" xr:uid="{02B9A53E-37A4-BD4D-B8DA-FF61CA0402D8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1897,7 +1964,7 @@
           <x14:formula1>
             <xm:f>'Parameters with Distributions'!$A$27:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>B16 B8</xm:sqref>
+          <xm:sqref>B8 B16:B18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/inst/extdata/SF-April13.xlsx
+++ b/inst/extdata/SF-April13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81631CBE-D989-D740-AA11-5C677B03DFDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DD54CC-AD24-8E44-A0F6-5A1716D1C836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2040" windowWidth="23580" windowHeight="17440" activeTab="3" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="9660" yWindow="2040" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Estimates can be the same in some/all columns</t>
   </si>
   <si>
-    <t>hide this?</t>
-  </si>
-  <si>
     <t xml:space="preserve">illness.length.given.nonhosp </t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>required.in.bounds</t>
   </si>
   <si>
-    <t>LB uses 75% for MO</t>
-  </si>
-  <si>
     <t>add.timestamp.to.filestr</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>Projection Start Date</t>
   </si>
   <si>
-    <t>User's Highest Prior</t>
-  </si>
-  <si>
     <t xml:space="preserve">This column will be used for the "User's Prior Projection". </t>
   </si>
   <si>
@@ -310,6 +301,15 @@
   </si>
   <si>
     <t>For San Francisco, "Confirmed COVID19 + 30%PUI"</t>
+  </si>
+  <si>
+    <t>User's "Best Guess"</t>
+  </si>
+  <si>
+    <t>see FAQ</t>
+  </si>
+  <si>
+    <t>see FAQ on localepi.github.io/LEMMA</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,38 +791,38 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="19" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -832,10 +832,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="5">
         <v>0.05</v>
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4">
         <v>2.5</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6">
         <v>43896</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4">
         <v>0.4</v>
@@ -1086,15 +1086,15 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
@@ -1114,10 +1114,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6">
         <v>43906</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4">
         <v>0.3</v>
@@ -1161,15 +1161,15 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6">
         <v>43983</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4">
         <v>1.1000000000000001</v>
@@ -1233,15 +1233,15 @@
         <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="b">
         <v>0</v>
@@ -1281,16 +1281,13 @@
       <c r="G21" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="b">
         <v>0</v>
@@ -1307,18 +1304,15 @@
       <c r="G22" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="23" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1333,10 +1327,11 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C21:G22" xr:uid="{4DE0DCAE-C019-834F-B9C1-56C11EC5B821}">
       <formula1>$A$27:$A$28</formula1>
@@ -1367,7 +1362,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,21 +1373,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9">
         <v>883305</v>
@@ -1400,10 +1395,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6">
         <v>43905</v>
@@ -1411,13 +1406,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" s="10">
-        <v>43952</v>
+        <v>44013</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1471,7 @@
         <v>62.599999999999994</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1730,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1743,10 +1738,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
@@ -1754,7 +1749,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4">
         <v>20</v>
@@ -1762,29 +1757,29 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="4">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
         <v>0.01</v>
@@ -1792,7 +1787,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4">
         <v>12345</v>
@@ -1800,16 +1795,16 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="b">
         <v>0</v>
@@ -1817,25 +1812,25 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4">
         <v>10000</v>
@@ -1843,7 +1838,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="12">
         <v>43853</v>
@@ -1851,34 +1846,40 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4">
         <v>0.9</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4">
         <v>1.1000000000000001</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="4" t="b">
         <v>1</v>
@@ -1886,7 +1887,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="b">
         <v>0</v>
@@ -1895,7 +1896,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="4" t="b">
         <v>1</v>
@@ -1903,24 +1904,25 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="9">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7D54BBB7-AF7C-3841-89CF-D6BEAE84ECD4}">
       <formula1>1</formula1>

--- a/inst/extdata/SF-April13.xlsx
+++ b/inst/extdata/SF-April13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DD54CC-AD24-8E44-A0F6-5A1716D1C836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1118D0A-A157-3143-B40C-F0C63906F134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="2040" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/SF-April13.xlsx
+++ b/inst/extdata/SF-April13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1118D0A-A157-3143-B40C-F0C63906F134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EDC15F-C376-224B-AB33-A68F6B8829C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="2040" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
@@ -778,7 +778,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,19 +1048,19 @@
         <v>37</v>
       </c>
       <c r="C12" s="6">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="D12" s="6">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E12" s="6">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F12" s="6">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G12" s="6">
-        <v>43896</v>
+        <v>43897</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1120,19 +1120,19 @@
         <v>44</v>
       </c>
       <c r="C15" s="6">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="D15" s="6">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="E15" s="6">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="F15" s="6">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="G15" s="6">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>13</v>
